--- a/wild_reports/tr0712t010_wild_report.xlsx
+++ b/wild_reports/tr0712t010_wild_report.xlsx
@@ -526,7 +526,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -544,7 +544,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr"/>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -557,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="2" t="inlineStr">
         <is>
@@ -575,7 +579,7 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -593,7 +597,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr"/>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -606,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="2" t="inlineStr">
         <is>
@@ -624,7 +632,7 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
@@ -642,7 +650,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr"/>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -655,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
@@ -673,7 +685,7 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
@@ -691,7 +703,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr"/>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -704,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
@@ -722,7 +738,7 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
@@ -740,7 +756,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr"/>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -753,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
@@ -771,7 +791,7 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -789,7 +809,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -802,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
@@ -820,7 +844,7 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
@@ -838,7 +862,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr"/>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -851,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
@@ -889,7 +917,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>SQUIRREL</t>
+          <t>Squirrel</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -922,7 +950,7 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
@@ -940,7 +968,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr"/>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -953,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
@@ -971,7 +1003,7 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
@@ -989,7 +1021,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr"/>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1002,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
@@ -1020,7 +1056,7 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -1038,7 +1074,11 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr"/>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1051,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
@@ -1069,7 +1109,7 @@
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
@@ -1087,7 +1127,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr"/>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1100,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
@@ -1118,7 +1162,7 @@
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
@@ -1136,7 +1180,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr"/>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1149,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
@@ -1167,7 +1215,7 @@
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
@@ -1185,7 +1233,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr"/>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1198,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
@@ -1216,7 +1268,7 @@
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
@@ -1234,7 +1286,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr"/>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1247,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
@@ -1265,7 +1321,7 @@
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -1283,7 +1339,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1296,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
@@ -1314,7 +1374,7 @@
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
@@ -1332,7 +1392,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1345,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
@@ -1363,7 +1427,7 @@
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
@@ -1381,7 +1445,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1394,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
@@ -1432,7 +1500,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>OTHER</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1465,7 +1533,7 @@
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
@@ -1483,7 +1551,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr"/>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1496,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
@@ -1514,7 +1586,7 @@
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
@@ -1532,7 +1604,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1545,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
@@ -1563,7 +1639,7 @@
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
@@ -1581,7 +1657,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F23" s="2" t="inlineStr"/>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1594,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
@@ -1612,7 +1692,7 @@
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
@@ -1630,7 +1710,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1643,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
@@ -1661,7 +1745,7 @@
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
@@ -1679,7 +1763,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F25" s="2" t="inlineStr"/>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1692,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
@@ -1710,7 +1798,7 @@
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
@@ -1728,7 +1816,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr"/>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1741,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
@@ -1759,7 +1851,7 @@
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
@@ -1777,7 +1869,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F27" s="2" t="inlineStr"/>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1790,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
@@ -1808,7 +1904,7 @@
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
@@ -1826,7 +1922,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F28" s="2" t="inlineStr"/>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1839,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
@@ -1857,7 +1957,7 @@
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
@@ -1875,7 +1975,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F29" s="2" t="inlineStr"/>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1888,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
@@ -1906,7 +2010,7 @@
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
@@ -1924,7 +2028,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F30" s="2" t="inlineStr"/>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1937,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
@@ -1955,7 +2063,7 @@
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
@@ -1973,7 +2081,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr"/>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1986,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
@@ -2004,7 +2116,7 @@
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
@@ -2022,7 +2134,11 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F32" s="2" t="inlineStr"/>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2035,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
@@ -2053,7 +2169,7 @@
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
@@ -2071,7 +2187,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F33" s="2" t="inlineStr"/>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2084,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
@@ -2102,7 +2222,7 @@
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
@@ -2120,7 +2240,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F34" s="2" t="inlineStr"/>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2133,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
@@ -2151,7 +2275,7 @@
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
@@ -2169,7 +2293,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F35" s="2" t="inlineStr"/>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2182,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
@@ -2200,7 +2328,7 @@
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
@@ -2218,7 +2346,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F36" s="2" t="inlineStr"/>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2231,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
@@ -2249,7 +2381,7 @@
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
@@ -2267,7 +2399,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F37" s="2" t="inlineStr"/>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2280,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
@@ -2298,7 +2434,7 @@
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
@@ -2316,7 +2452,11 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F38" s="2" t="inlineStr"/>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2329,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
@@ -2347,7 +2487,7 @@
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
@@ -2365,7 +2505,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F39" s="2" t="inlineStr"/>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2378,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
@@ -2396,7 +2540,7 @@
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
@@ -2414,7 +2558,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F40" s="2" t="inlineStr"/>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2427,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
@@ -2445,7 +2593,7 @@
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
@@ -2463,7 +2611,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F41" s="2" t="inlineStr"/>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2476,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
@@ -2494,7 +2646,7 @@
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
@@ -2512,7 +2664,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F42" s="2" t="inlineStr"/>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2525,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
@@ -2543,7 +2699,7 @@
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
@@ -2561,7 +2717,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F43" s="2" t="inlineStr"/>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2574,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
@@ -2612,7 +2772,7 @@
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>MINK</t>
+          <t>Mink</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
@@ -2645,7 +2805,7 @@
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
@@ -2663,7 +2823,11 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F45" s="2" t="inlineStr"/>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2676,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
@@ -2694,7 +2858,7 @@
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
@@ -2712,7 +2876,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F46" s="2" t="inlineStr"/>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2725,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" s="2" t="inlineStr">
         <is>

--- a/wild_reports/tr0712t010_wild_report.xlsx
+++ b/wild_reports/tr0712t010_wild_report.xlsx
@@ -526,7 +526,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -544,11 +544,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F2" s="2" t="inlineStr"/>
       <c r="G2" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -561,7 +557,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="2" t="inlineStr">
         <is>
@@ -579,7 +575,7 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -597,11 +593,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F3" s="2" t="inlineStr"/>
       <c r="G3" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -614,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="2" t="inlineStr">
         <is>
@@ -632,7 +624,7 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
@@ -650,11 +642,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F4" s="2" t="inlineStr"/>
       <c r="G4" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -667,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
@@ -685,7 +673,7 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
@@ -703,11 +691,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F5" s="2" t="inlineStr"/>
       <c r="G5" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -720,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
@@ -738,7 +722,7 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
@@ -756,11 +740,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F6" s="2" t="inlineStr"/>
       <c r="G6" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -773,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
@@ -791,7 +771,7 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -809,11 +789,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F7" s="2" t="inlineStr"/>
       <c r="G7" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -826,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
@@ -844,7 +820,7 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
@@ -862,11 +838,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F8" s="2" t="inlineStr"/>
       <c r="G8" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -879,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
@@ -950,7 +922,7 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
@@ -968,11 +940,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F10" s="2" t="inlineStr"/>
       <c r="G10" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -985,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
@@ -1003,7 +971,7 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
@@ -1021,11 +989,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F11" s="2" t="inlineStr"/>
       <c r="G11" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1038,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
@@ -1056,7 +1020,7 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -1074,11 +1038,7 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F12" s="2" t="inlineStr"/>
       <c r="G12" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1091,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
@@ -1109,7 +1069,7 @@
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
@@ -1127,11 +1087,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F13" s="2" t="inlineStr"/>
       <c r="G13" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1144,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
@@ -1162,7 +1118,7 @@
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
@@ -1180,11 +1136,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F14" s="2" t="inlineStr"/>
       <c r="G14" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1197,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
@@ -1215,7 +1167,7 @@
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
@@ -1233,11 +1185,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F15" s="2" t="inlineStr"/>
       <c r="G15" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1250,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
@@ -1268,7 +1216,7 @@
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
@@ -1286,11 +1234,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F16" s="2" t="inlineStr"/>
       <c r="G16" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1303,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
@@ -1321,7 +1265,7 @@
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -1339,11 +1283,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F17" s="2" t="inlineStr"/>
       <c r="G17" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1356,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
@@ -1374,7 +1314,7 @@
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
@@ -1392,11 +1332,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1409,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
@@ -1427,7 +1363,7 @@
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
@@ -1445,11 +1381,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1462,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
@@ -1533,7 +1465,7 @@
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
@@ -1551,11 +1483,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F21" s="2" t="inlineStr"/>
       <c r="G21" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1568,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
@@ -1586,7 +1514,7 @@
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
@@ -1604,11 +1532,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F22" s="2" t="inlineStr"/>
       <c r="G22" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1621,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
@@ -1639,7 +1563,7 @@
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
@@ -1657,11 +1581,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F23" s="2" t="inlineStr"/>
       <c r="G23" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1674,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
@@ -1692,7 +1612,7 @@
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
@@ -1710,11 +1630,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F24" s="2" t="inlineStr"/>
       <c r="G24" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1727,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
@@ -1745,7 +1661,7 @@
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
@@ -1763,11 +1679,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F25" s="2" t="inlineStr"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1780,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
@@ -1798,7 +1710,7 @@
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
@@ -1816,11 +1728,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F26" s="2" t="inlineStr"/>
       <c r="G26" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1833,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
@@ -1851,7 +1759,7 @@
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
@@ -1869,11 +1777,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F27" s="2" t="inlineStr"/>
       <c r="G27" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1886,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
@@ -1904,7 +1808,7 @@
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
@@ -1922,11 +1826,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F28" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F28" s="2" t="inlineStr"/>
       <c r="G28" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1939,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
@@ -1957,7 +1857,7 @@
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
@@ -1975,11 +1875,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F29" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F29" s="2" t="inlineStr"/>
       <c r="G29" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1992,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
@@ -2010,7 +1906,7 @@
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
@@ -2028,11 +1924,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F30" s="2" t="inlineStr"/>
       <c r="G30" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2045,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
@@ -2063,7 +1955,7 @@
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
@@ -2081,11 +1973,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F31" s="2" t="inlineStr"/>
       <c r="G31" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2098,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
@@ -2116,7 +2004,7 @@
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
@@ -2134,11 +2022,7 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F32" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F32" s="2" t="inlineStr"/>
       <c r="G32" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2151,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
@@ -2169,7 +2053,7 @@
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
@@ -2187,11 +2071,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F33" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F33" s="2" t="inlineStr"/>
       <c r="G33" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2204,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
@@ -2222,7 +2102,7 @@
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
@@ -2240,11 +2120,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F34" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F34" s="2" t="inlineStr"/>
       <c r="G34" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2257,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
@@ -2275,7 +2151,7 @@
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
@@ -2293,11 +2169,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F35" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F35" s="2" t="inlineStr"/>
       <c r="G35" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2310,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
@@ -2328,7 +2200,7 @@
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
@@ -2346,11 +2218,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F36" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F36" s="2" t="inlineStr"/>
       <c r="G36" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2363,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
@@ -2381,7 +2249,7 @@
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
@@ -2399,11 +2267,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F37" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F37" s="2" t="inlineStr"/>
       <c r="G37" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2416,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
@@ -2434,7 +2298,7 @@
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
@@ -2452,11 +2316,7 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F38" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F38" s="2" t="inlineStr"/>
       <c r="G38" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2469,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
@@ -2487,7 +2347,7 @@
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
@@ -2505,11 +2365,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F39" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F39" s="2" t="inlineStr"/>
       <c r="G39" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2522,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
@@ -2540,7 +2396,7 @@
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
@@ -2558,11 +2414,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F40" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F40" s="2" t="inlineStr"/>
       <c r="G40" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2575,7 +2427,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
@@ -2593,7 +2445,7 @@
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
@@ -2611,11 +2463,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F41" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F41" s="2" t="inlineStr"/>
       <c r="G41" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2628,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
@@ -2646,7 +2494,7 @@
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
@@ -2664,11 +2512,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F42" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2681,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
@@ -2699,7 +2543,7 @@
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
@@ -2717,11 +2561,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F43" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F43" s="2" t="inlineStr"/>
       <c r="G43" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2734,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
@@ -2805,7 +2645,7 @@
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
@@ -2823,11 +2663,7 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F45" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F45" s="2" t="inlineStr"/>
       <c r="G45" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2840,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
@@ -2858,7 +2694,7 @@
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
@@ -2876,11 +2712,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F46" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F46" s="2" t="inlineStr"/>
       <c r="G46" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2893,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" s="2" t="inlineStr">
         <is>
